--- a/image/searchparameter.xlsx
+++ b/image/searchparameter.xlsx
@@ -1002,46 +1002,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.80859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.46875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="36.80078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.53515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/searchparameter.xlsx
+++ b/image/searchparameter.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="272">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -365,10 +365,6 @@
   </si>
   <si>
     <t>SearchParameter.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the search parameter</t>
@@ -1002,46 +998,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.80859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.06640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.5859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.53515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="84.46875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="36.80078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2333,16 +2329,16 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2413,10 +2409,10 @@
         <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -2424,7 +2420,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2447,19 +2443,19 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>41</v>
@@ -2508,7 +2504,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>50</v>
@@ -2517,7 +2513,7 @@
         <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
@@ -2540,7 +2536,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2563,16 +2559,16 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2622,7 +2618,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2654,7 +2650,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2680,13 +2676,13 @@
         <v>69</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2712,55 +2708,55 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -2768,7 +2764,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2791,19 +2787,19 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2852,7 +2848,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2873,10 +2869,10 @@
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -2884,11 +2880,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2907,16 +2903,16 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2966,7 +2962,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -2987,10 +2983,10 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -2998,7 +2994,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3021,19 +3017,19 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3082,7 +3078,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3103,10 +3099,10 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3114,7 +3110,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3137,16 +3133,16 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3196,7 +3192,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3217,7 +3213,7 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3228,7 +3224,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3251,16 +3247,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3310,7 +3306,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>50</v>
@@ -3331,7 +3327,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3342,7 +3338,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3365,19 +3361,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3426,7 +3422,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3447,7 +3443,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3458,7 +3454,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3481,16 +3477,16 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3516,14 +3512,14 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
@@ -3540,7 +3536,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3561,7 +3557,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -3572,7 +3568,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3595,16 +3591,16 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3654,7 +3650,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3675,18 +3671,18 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3712,13 +3708,13 @@
         <v>69</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3768,7 +3764,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>50</v>
@@ -3800,7 +3796,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3826,13 +3822,13 @@
         <v>69</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3858,14 +3854,14 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
       </c>
@@ -3882,7 +3878,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -3914,7 +3910,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3940,10 +3936,10 @@
         <v>69</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3970,14 +3966,14 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
       </c>
@@ -3994,7 +3990,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>50</v>
@@ -4026,7 +4022,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4049,16 +4045,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4108,7 +4104,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4117,7 +4113,7 @@
         <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
@@ -4140,7 +4136,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4163,16 +4159,16 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4222,7 +4218,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4231,7 +4227,7 @@
         <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
@@ -4254,7 +4250,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4280,10 +4276,10 @@
         <v>69</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4310,14 +4306,14 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4334,7 +4330,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4343,7 +4339,7 @@
         <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
@@ -4366,7 +4362,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4392,10 +4388,10 @@
         <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4422,14 +4418,14 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4446,7 +4442,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4478,7 +4474,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4501,13 +4497,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4558,7 +4554,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4590,7 +4586,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4613,13 +4609,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4670,7 +4666,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4702,7 +4698,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4728,13 +4724,13 @@
         <v>69</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4760,14 +4756,14 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
       </c>
@@ -4784,7 +4780,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4816,7 +4812,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4842,10 +4838,10 @@
         <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4872,14 +4868,14 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
       </c>
@@ -4896,7 +4892,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4928,7 +4924,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4951,16 +4947,16 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5010,7 +5006,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5042,7 +5038,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5065,13 +5061,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5122,7 +5118,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5134,7 +5130,7 @@
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
@@ -5154,7 +5150,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5177,13 +5173,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5234,7 +5230,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5266,7 +5262,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5295,7 +5291,7 @@
         <v>96</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>98</v>
@@ -5348,7 +5344,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5380,11 +5376,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5406,10 +5402,10 @@
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>98</v>
@@ -5464,7 +5460,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5496,7 +5492,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5519,13 +5515,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5576,7 +5572,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -5608,7 +5604,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5631,16 +5627,16 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5690,7 +5686,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>50</v>
